--- a/data/dataA/就业信息.xlsx
+++ b/data/dataA/就业信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19740" windowHeight="12765"/>
+    <workbookView windowWidth="30720" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="城镇失业率" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">从业人员数!$B$1:$B$763</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">第一、二、三产业就业人数!$B$1:$B$699</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="48">
   <si>
     <t>年份</t>
   </si>
@@ -152,7 +165,7 @@
     <t>city13</t>
   </si>
   <si>
-    <t xml:space="preserve">city29 </t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>pi_Employment</t>
@@ -170,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1176,13 +1189,13 @@
   <sheetPr/>
   <dimension ref="A1:C770"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="20.8833333333333" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.8796296296296" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9666,17 +9679,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C763"/>
+  <dimension ref="A1:G763"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="G556" sqref="G556"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="16" style="10" customWidth="1"/>
-    <col min="3" max="3" width="25.875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.375"/>
+    <col min="3" max="3" width="25.8796296296296" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.37962962962963"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15698,7 +15711,7 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B548" s="5">
         <v>2020</v>
@@ -15709,7 +15722,7 @@
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B549" s="5">
         <v>2019</v>
@@ -15720,7 +15733,7 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B550" s="5">
         <v>2018</v>
@@ -15731,7 +15744,7 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B551" s="5">
         <v>2017</v>
@@ -15742,7 +15755,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B552" s="5">
         <v>2016</v>
@@ -15753,7 +15766,7 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B553" s="5">
         <v>2015</v>
@@ -15764,7 +15777,7 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B554" s="5">
         <v>2014</v>
@@ -15773,9 +15786,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:7">
       <c r="A555" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B555" s="5">
         <v>2013</v>
@@ -15783,10 +15796,13 @@
       <c r="C555" s="7">
         <v>389</v>
       </c>
+      <c r="G555" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B556" s="5">
         <v>2012</v>
@@ -15797,7 +15813,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B557" s="5">
         <v>2011</v>
@@ -15808,7 +15824,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B558" s="5">
         <v>2010</v>
@@ -15819,7 +15835,7 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B559" s="5">
         <v>2009</v>
@@ -15830,7 +15846,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B560" s="5">
         <v>2008</v>
@@ -15841,7 +15857,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B561" s="5">
         <v>2007</v>
@@ -15852,7 +15868,7 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B562" s="5">
         <v>2006</v>
@@ -15863,7 +15879,7 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B563" s="5">
         <v>2005</v>
@@ -15874,7 +15890,7 @@
     </row>
     <row r="564" spans="1:3">
       <c r="A564" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B564" s="5">
         <v>2004</v>
@@ -15885,7 +15901,7 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B565" s="5">
         <v>2021</v>
@@ -15896,7 +15912,7 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B566" s="5">
         <v>2020</v>
@@ -15907,7 +15923,7 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B567" s="5">
         <v>2019</v>
@@ -15918,7 +15934,7 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B568" s="5">
         <v>2018</v>
@@ -15929,7 +15945,7 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B569" s="5">
         <v>2017</v>
@@ -15940,7 +15956,7 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B570" s="5">
         <v>2016</v>
@@ -15951,7 +15967,7 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B571" s="5">
         <v>2015</v>
@@ -15962,7 +15978,7 @@
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B572" s="5">
         <v>2014</v>
@@ -15973,7 +15989,7 @@
     </row>
     <row r="573" spans="1:3">
       <c r="A573" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B573" s="5">
         <v>2013</v>
@@ -15984,7 +16000,7 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B574" s="5">
         <v>2012</v>
@@ -15995,7 +16011,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B575" s="5">
         <v>2011</v>
@@ -16006,7 +16022,7 @@
     </row>
     <row r="576" spans="1:3">
       <c r="A576" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B576" s="5">
         <v>2010</v>
@@ -16017,7 +16033,7 @@
     </row>
     <row r="577" spans="1:3">
       <c r="A577" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B577" s="5">
         <v>2009</v>
@@ -16028,7 +16044,7 @@
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B578" s="5">
         <v>2008</v>
@@ -16039,7 +16055,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B579" s="5">
         <v>2007</v>
@@ -16050,7 +16066,7 @@
     </row>
     <row r="580" spans="1:3">
       <c r="A580" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B580" s="5">
         <v>2006</v>
@@ -16061,7 +16077,7 @@
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B581" s="5">
         <v>2005</v>
@@ -16072,7 +16088,7 @@
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B582" s="5">
         <v>2004</v>
@@ -16083,7 +16099,7 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B583" s="5">
         <v>2003</v>
@@ -18091,12 +18107,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.2166666666667" style="2" customWidth="1"/>
-    <col min="4" max="5" width="13.775" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.8796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.212962962963" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.7777777777778" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
